--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfsf15-Tnfrsf25.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfsf15-Tnfrsf25.xlsx
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.262268666666666</v>
+        <v>4.027649333333334</v>
       </c>
       <c r="N2">
-        <v>6.786805999999999</v>
+        <v>12.082948</v>
       </c>
       <c r="O2">
-        <v>0.5765147003983137</v>
+        <v>0.7079186457773816</v>
       </c>
       <c r="P2">
-        <v>0.5765147003983135</v>
+        <v>0.7079186457773815</v>
       </c>
       <c r="Q2">
-        <v>0.1310954528751111</v>
+        <v>0.2333969086675556</v>
       </c>
       <c r="R2">
-        <v>1.179859075876</v>
+        <v>2.100572178008</v>
       </c>
       <c r="S2">
-        <v>0.5765147003983137</v>
+        <v>0.7079186457773816</v>
       </c>
       <c r="T2">
-        <v>0.5765147003983135</v>
+        <v>0.7079186457773815</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>2.257729</v>
       </c>
       <c r="O3">
-        <v>0.19178593848352</v>
+        <v>0.1322763663480404</v>
       </c>
       <c r="P3">
-        <v>0.19178593848352</v>
+        <v>0.1322763663480404</v>
       </c>
       <c r="Q3">
         <v>0.04361079508155555</v>
@@ -632,10 +632,10 @@
         <v>0.392497155734</v>
       </c>
       <c r="S3">
-        <v>0.19178593848352</v>
+        <v>0.1322763663480404</v>
       </c>
       <c r="T3">
-        <v>0.19178593848352</v>
+        <v>0.1322763663480404</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>2.727595</v>
       </c>
       <c r="O4">
-        <v>0.2316993611181664</v>
+        <v>0.1598049878745781</v>
       </c>
       <c r="P4">
-        <v>0.2316993611181664</v>
+        <v>0.159804987874578</v>
       </c>
       <c r="Q4">
         <v>0.05268683115222222</v>
@@ -694,10 +694,10 @@
         <v>0.47418148037</v>
       </c>
       <c r="S4">
-        <v>0.2316993611181664</v>
+        <v>0.1598049878745781</v>
       </c>
       <c r="T4">
-        <v>0.2316993611181664</v>
+        <v>0.159804987874578</v>
       </c>
     </row>
   </sheetData>
